--- a/testdata/simple.xlsx
+++ b/testdata/simple.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/back/Documents/Go/third/src/github.com/szyhf/go-excel/test/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/back/Documents/Go/src/github.com/szyhf/go-excel/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF675B6-56E9-A742-BF43-F0165CE95684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38300" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Advance.suffix" sheetId="1" r:id="rId1"/>
     <sheet name="Standard" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
@@ -183,6 +184,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -561,9 +565,11 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <f>A9</f>
         <v>4</v>
       </c>
       <c r="D9">
+        <f>A5</f>
         <v>1</v>
       </c>
     </row>
@@ -574,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">

--- a/testdata/simple.xlsx
+++ b/testdata/simple.xlsx
@@ -1,148 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/back/Documents/Go/src/github.com/szyhf/go-excel/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF675B6-56E9-A742-BF43-F0165CE95684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17700" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Advance.suffix" sheetId="1" r:id="rId1"/>
     <sheet name="Standard" sheetId="2" r:id="rId2"/>
+    <sheet name="DuplicatedTitle" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <t>Row To Skip</t>
+  </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameOf</t>
+  </si>
+  <si>
+    <t>AgeOf</t>
   </si>
   <si>
     <t>Slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameOf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UnmarshalString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>stringSTR</t>
+  </si>
+  <si>
+    <t>row to skip</t>
+  </si>
+  <si>
+    <t>some remark</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>{"Foo":"Andy"}</t>
+  </si>
+  <si>
+    <t>row 4 is empty row so don't need to set skip.</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>2|3|4</t>
+  </si>
+  <si>
+    <t>{"Foo":"Leo"}</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>3|4|5|6</t>
+  </si>
+  <si>
+    <t>{"Foo":"Ben"}</t>
   </si>
   <si>
     <t>leave an empty row to show the feature of "auto skip empty row" and "skip column without title".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ben</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Row To Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|3|4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|4|5|6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Foo":"Andy"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Foo":"Leo"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Foo":"Ben"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"Foo":"Ming"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgeOf</t>
-  </si>
-  <si>
-    <t>AgeOf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringSTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>row to skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>some remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>row 4 is empty row so don't need to set skip.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DuplicatedTitle</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,17 +121,355 @@
       <sz val="18"/>
       <color rgb="FFE6DB74"/>
       <name val="Source Code Pro"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -168,25 +477,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -270,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -444,125 +1039,120 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="23.2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <f>A9</f>
@@ -574,98 +1164,99 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.2" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" ht="23.2" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -674,11 +1265,55 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="17.2" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testdata/simple.xlsx
+++ b/testdata/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="16800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Advance.suffix" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Row To Skip</t>
   </si>
@@ -93,10 +93,16 @@
     <t>Value1</t>
   </si>
   <si>
+    <t>EmptyTitleValue1</t>
+  </si>
+  <si>
     <t>Value2</t>
   </si>
   <si>
     <t>Value3</t>
+  </si>
+  <si>
+    <t>EmptyTitleValue2</t>
   </si>
 </sst>
 </file>
@@ -104,8 +110,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -132,38 +138,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +146,44 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,53 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +220,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,24 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,37 +290,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,145 +434,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +497,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -534,189 +581,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1277,39 +1283,47 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="17.2" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="17.2" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.8" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/simple.xlsx
+++ b/testdata/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16800" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Advance.suffix" sheetId="1" r:id="rId1"/>
@@ -131,36 +131,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +162,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -182,8 +176,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -197,8 +206,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -206,76 +237,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,37 +290,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,31 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,109 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,8 +487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +498,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,26 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,181 +581,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.2" outlineLevelCol="5"/>
@@ -1285,7 +1285,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
